--- a/data/variables.xlsx
+++ b/data/variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilike\Documents\CEU\Courses\2020_Fall\Mandatory\DA2\DA2_Assignment\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FAFCED-6A55-4A9C-AA91-3D653DFE1661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E9732C-2B7F-4079-ABBC-19FDF6671A92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="315" yWindow="2205" windowWidth="13845" windowHeight="13065" xr2:uid="{8AC85E6C-6B8B-4871-8CF1-20A51391CDAD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>population</t>
   </si>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t>https://databank.worldbank.org/indicator/SP.POP.TOTL/1ff4a498/Popular-Indicators</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Field through which the merge was done</t>
+  </si>
+  <si>
+    <t>WorldBank &amp; JHU CSSE COVID-19 Dateset</t>
   </si>
 </sst>
 </file>
@@ -467,9 +476,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD39585-10CB-497B-9434-090CC42CD1BC}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -499,30 +510,30 @@
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -533,16 +544,16 @@
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -550,16 +561,16 @@
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -567,18 +578,35 @@
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
     </row>
